--- a/biology/Zoologie/Conus_bengalensis/Conus_bengalensis.xlsx
+++ b/biology/Zoologie/Conus_bengalensis/Conus_bengalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus bengalensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 60 mm et 148 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du Golfe du Bengale, de la Mer d'Andaman, de la Birmanie et de la Thaïlande.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans la baie du Bengale, la mer d'Andaman et au large du sud-est de l'Inde. Elle est localement commune dans toute son aire de répartition et il n'y a pas de menaces majeures connues. Elle est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -573,22 +587,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans la baie du Bengale, la mer d'Andaman et au large du sud-est de l'Inde. Elle est localement commune dans toute son aire de répartition et il n'y a pas de menaces majeures connues. Elle est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus bengalensis a été décrite pour la première fois en 1968 par le malacologiste japonais Takashi A. Okutani (d)[2],[3],[4].
-Synonymes
-Conus (Cylinder) bengalensis (Okutani, 1968) · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus bengalensis a été décrite pour la première fois en 1968 par le malacologiste japonais Takashi A. Okutani (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Cylinder) bengalensis (Okutani, 1968) · appellation alternative
 Cylinder bengalensis (Okutani, 1968) · non accepté
-Darioconus bengalensis Okutani, 1968 · non accepté (combinaison originale)
-Sous-espèces
-Conus bengalensis bengalensis (Okutani, 1968)
-Conus bengalensis sumbawaensis (Verbinnen, 2022)
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus bengalensis dans les principales bases sont les suivants :
+Darioconus bengalensis Okutani, 1968 · non accepté (combinaison originale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus bengalensis bengalensis (Okutani, 1968)
+Conus bengalensis sumbawaensis (Verbinnen, 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_bengalensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus bengalensis dans les principales bases sont les suivants :
 CoL : XWZF - GBIF : 5728355 - iNaturalist : 431867 - IRMNG : 10810520 - TAXREF : 155462 - UICN : 192738 - 
 </t>
         </is>
